--- a/results.xlsx
+++ b/results.xlsx
@@ -1038,7 +1038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -1602,6 +1602,90 @@
         <v>0.9335780143737793</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>results/train\exp_20251004_114157</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>64</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D20" t="n">
+        <v>500</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.002950328635051847</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.002950328635051847</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03928187862038612</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8550063371658325</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>results/train\exp_20251004_114521</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>64</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D21" t="n">
+        <v>500</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.001791139366105199</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.001791139133274555</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02821182273328304</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9119746088981628</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>results/train\exp_20251008_134800</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>64</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D22" t="n">
+        <v>500</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.002758899936452508</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.002758899703621864</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03665045648813248</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8644140958786011</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
